--- a/biology/Botanique/Hydropunctaria_maura/Hydropunctaria_maura.xlsx
+++ b/biology/Botanique/Hydropunctaria_maura/Hydropunctaria_maura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verrucaire noire
 Hydropunctaria maura (anciennement Verrucaria maura), appelée aussi Verrucaire noire, est une espèce de lichens encroûtants de la famille des Verrucariaceae. Il s'agit d'une espèce strictement maritime vivant dans l'étage supralittoral, juste au-dessus de la limite supérieure de l'estran. De couleur noire, ce lichen forme à ce niveau une ceinture caractéristique sur les rivages marins de nombreuses régions du monde. Son aspect rappelle des dépôts dus à une sinistre marée noire.
@@ -512,7 +524,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les zones côtières, la zone noire dominée par Verrucaria maura (Hydropunctaria maura) souligne le niveau des plus hautes mers et marque le passage au milieu terrestre.
 Sur les autres projets Wikimedia :
